--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1206489.156673185</v>
+        <v>1263088.105304657</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954775</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.2040797173</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6391260.337024991</v>
+        <v>6880541.457576085</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54.81047169401717</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>359.4361022422149</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -725,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -832,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>272.5018050100011</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>161.155110205869</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>335.4789331224958</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>167.5076522605959</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1060,19 +1062,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>43.4889870101585</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.133574646794665</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1141,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>59.59474737021491</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>30.96465002000427</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1303,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>159.6574681744386</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1339,13 +1341,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>131.5141848153387</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>10.1507312021297</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>295.4196326200583</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480023073</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>161.6379250432767</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>36.00646596537342</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>289.6029663988411</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170487</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>239.8015903253614</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.10461178738937</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>214.3693806674597</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2722,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>35.34780583513631</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,10 +2772,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>187.5234134555184</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.8285166974201</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>195.5075252816747</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3199,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>82.15263531037888</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3244,13 +3246,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454844</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3506,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308167788</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>27.0795002619505</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3749,16 +3751,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>12.11553319608651</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,19 +3793,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>94.88634579586511</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>156.3113891517335</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3952,10 +3954,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436913</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>145.0000786071799</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>272.1494839753869</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4183,22 +4185,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>54.66258501924893</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>99.28616603324285</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1382.412671899186</v>
+        <v>1197.718769568169</v>
       </c>
       <c r="C2" t="n">
-        <v>944.2701990826092</v>
+        <v>1163.616700791997</v>
       </c>
       <c r="D2" t="n">
-        <v>508.3604142570537</v>
+        <v>800.5499308503654</v>
       </c>
       <c r="E2" t="n">
-        <v>478.6260734557529</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F2" t="n">
-        <v>454.7990479053647</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L2" t="n">
-        <v>518.3865980530361</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M2" t="n">
-        <v>1179.226652594814</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N2" t="n">
-        <v>1840.066707136593</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O2" t="n">
-        <v>2500.906761678371</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4361,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748445</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>2048.221573682272</v>
       </c>
       <c r="W2" t="n">
-        <v>2265.205371842461</v>
+        <v>1643.366119093305</v>
       </c>
       <c r="X2" t="n">
-        <v>1846.062908421772</v>
+        <v>1224.223655672616</v>
       </c>
       <c r="Y2" t="n">
-        <v>1437.776784721425</v>
+        <v>1219.977936012673</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I3" t="n">
-        <v>79.46488968908616</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>404.0232146552985</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="K3" t="n">
-        <v>404.0232146552985</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="L3" t="n">
-        <v>404.0232146552985</v>
+        <v>1468.481833257574</v>
       </c>
       <c r="M3" t="n">
-        <v>404.0232146552985</v>
+        <v>1468.481833257574</v>
       </c>
       <c r="N3" t="n">
-        <v>404.0232146552985</v>
+        <v>1468.481833257574</v>
       </c>
       <c r="O3" t="n">
-        <v>404.0232146552985</v>
+        <v>1468.481833257574</v>
       </c>
       <c r="P3" t="n">
-        <v>1064.863269197077</v>
+        <v>2129.321887799353</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>903.8972536055599</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>731.3355420887848</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>565.4575492903075</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>395.6995455410447</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>218.9924915028009</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4498,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T4" t="n">
-        <v>2402.763558715255</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>2127.509210220304</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1840.553702090735</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="W4" t="n">
-        <v>1568.527297677026</v>
+        <v>1714.480606147277</v>
       </c>
       <c r="X4" t="n">
-        <v>1323.135543010439</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1095.715872324547</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>173.3508218145016</v>
+        <v>1415.517618276922</v>
       </c>
       <c r="C5" t="n">
-        <v>139.2487530383289</v>
+        <v>977.3751454603453</v>
       </c>
       <c r="D5" t="n">
-        <v>107.3793722531775</v>
+        <v>541.4653606347897</v>
       </c>
       <c r="E5" t="n">
-        <v>77.64503145187676</v>
+        <v>511.7310198334889</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.11942280532</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.502472739146</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1339.64701815018</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>920.5045547294905</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y5" t="n">
-        <v>512.2184310291439</v>
+        <v>1841.81718876183</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="M6" t="n">
-        <v>1064.863269197077</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="N6" t="n">
-        <v>1599.468199913098</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="O6" t="n">
-        <v>1599.468199913098</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>962.7013733912472</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C7" t="n">
-        <v>790.1396618744722</v>
+        <v>749.5747111314687</v>
       </c>
       <c r="D7" t="n">
-        <v>624.2616690759949</v>
+        <v>583.6967183329914</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>413.9387145837287</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>237.2316605454849</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>237.2316605454849</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>97.32948623585938</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y7" t="n">
-        <v>1154.519992110234</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1385.055244562854</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>946.912771746277</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D8" t="n">
-        <v>511.0029869207216</v>
+        <v>137.4249565943854</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>77.22824207901678</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4841,13 +4843,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2638.783402168797</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>2219.640938748108</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1811.354815047761</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4877,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>1064.863269197077</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.863269197077</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="Q9" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1128.138272039508</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>955.5765605227328</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>789.6985677242556</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>619.9405639749928</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>443.233509936749</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4957,7 +4959,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T10" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U10" t="n">
-        <v>2124.330557968361</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.375049838791</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W10" t="n">
-        <v>1565.348645425083</v>
+        <v>1684.540277469973</v>
       </c>
       <c r="X10" t="n">
-        <v>1319.956890758495</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1319.956890758495</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1619.705114763052</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>1619.705114763052</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1183.795329937496</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>885.391660624306</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>457.5242310335137</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677763</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171362</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="K11" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="L11" t="n">
-        <v>491.3810871096955</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M11" t="n">
-        <v>491.3810871096955</v>
+        <v>2325.877900782264</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5387406219836</v>
+        <v>3451.608884218711</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>4431.788550789018</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>4688.504965942681</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4688.504965942681</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942681</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126518</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999557</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>2443.703032772708</v>
+        <v>3762.9466122504</v>
       </c>
       <c r="W11" t="n">
-        <v>2038.847578183741</v>
+        <v>3358.091157661433</v>
       </c>
       <c r="X11" t="n">
-        <v>1619.705114763052</v>
+        <v>2938.948694240744</v>
       </c>
       <c r="Y11" t="n">
-        <v>1619.705114763052</v>
+        <v>2530.662570540398</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677763</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677763</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="K12" t="n">
-        <v>484.0630267508877</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="L12" t="n">
-        <v>484.0630267508877</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="M12" t="n">
-        <v>484.0630267508877</v>
+        <v>479.4321036325092</v>
       </c>
       <c r="N12" t="n">
-        <v>484.0630267508877</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="O12" t="n">
-        <v>484.0630267508877</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P12" t="n">
-        <v>1178.627222503511</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>744.2024157797618</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C13" t="n">
-        <v>571.6407042629868</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>405.7627114645095</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E13" t="n">
-        <v>236.0047077152468</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F13" t="n">
-        <v>59.29765367700296</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965677763</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677763</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562946</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.247373141401</v>
+        <v>2387.917709162805</v>
       </c>
       <c r="U13" t="n">
-        <v>1967.814372394506</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.858864264937</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.832459851228</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.440705184641</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.021034498749</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>891.2989758752185</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>891.2989758752185</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>891.2989758752185</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>457.5242310335137</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>457.5242310335137</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677763</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171362</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="K14" t="n">
-        <v>750.6905954094008</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L14" t="n">
-        <v>870.6928053750404</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M14" t="n">
-        <v>870.6928053750404</v>
+        <v>3160.228192740442</v>
       </c>
       <c r="N14" t="n">
-        <v>870.6928053750404</v>
+        <v>4285.959176176888</v>
       </c>
       <c r="O14" t="n">
-        <v>1565.257001127664</v>
+        <v>4285.959176176888</v>
       </c>
       <c r="P14" t="n">
-        <v>2259.821196880287</v>
+        <v>4688.504965942681</v>
       </c>
       <c r="Q14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942681</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942681</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942681</v>
       </c>
       <c r="T14" t="n">
-        <v>2586.25275571192</v>
+        <v>4688.504965942681</v>
       </c>
       <c r="U14" t="n">
-        <v>2586.25275571192</v>
+        <v>4429.282663259698</v>
       </c>
       <c r="V14" t="n">
-        <v>2549.882588070129</v>
+        <v>4066.665713193524</v>
       </c>
       <c r="W14" t="n">
-        <v>2145.027133481162</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X14" t="n">
-        <v>1725.884670060473</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1317.598546360126</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="K15" t="n">
-        <v>484.0630267508877</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>484.0630267508877</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>484.0630267508877</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>484.0630267508877</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>484.0630267508877</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1178.627222503511</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>765.6202370743899</v>
+        <v>1007.236984956563</v>
       </c>
       <c r="C16" t="n">
-        <v>593.0585255576149</v>
+        <v>834.6752734397877</v>
       </c>
       <c r="D16" t="n">
-        <v>427.1805327591376</v>
+        <v>668.7972806413104</v>
       </c>
       <c r="E16" t="n">
-        <v>257.4225290098748</v>
+        <v>499.0392768920476</v>
       </c>
       <c r="F16" t="n">
-        <v>80.71547497163104</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677763</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677763</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436029</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.232193689134</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.276685559565</v>
+        <v>1943.893433441738</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.250281145856</v>
+        <v>1671.867029028029</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.858526479269</v>
+        <v>1426.475274361442</v>
       </c>
       <c r="Y16" t="n">
-        <v>957.4388557933771</v>
+        <v>1199.05560367555</v>
       </c>
     </row>
     <row r="17">
@@ -5513,52 +5515,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5777,25 +5779,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L21" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.416826573035</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562604</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577831</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V25" t="n">
-        <v>1978.07327505821</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W25" t="n">
-        <v>1706.046870644502</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X25" t="n">
-        <v>1460.655115977914</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y25" t="n">
-        <v>1233.235445292023</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>3879.214741978675</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3205.876241053795</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>3033.31452953702</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>2867.436536738543</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>2697.67853298928</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>2661.973678610354</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>4953.800644836978</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>4707.921198415434</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>4429.488197668539</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>4142.53268953897</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W28" t="n">
-        <v>3870.506285125261</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>3625.114530458674</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>3397.694859772782</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,19 +6466,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>834.8539430951545</v>
+        <v>838.7339540459399</v>
       </c>
       <c r="C31" t="n">
-        <v>662.2922315783794</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="D31" t="n">
-        <v>496.4142387799021</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E31" t="n">
         <v>496.4142387799021</v>
@@ -6649,22 +6651,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2340.778911407579</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2062.345910660684</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1775.390402531115</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1503.363998117406</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1257.972243450819</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1030.552572764927</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K33" t="n">
-        <v>405.0384966383147</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L33" t="n">
-        <v>405.0384966383147</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M33" t="n">
-        <v>405.0384966383147</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N33" t="n">
-        <v>405.0384966383147</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O33" t="n">
-        <v>405.0384966383147</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3492.831749183365</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>3320.270037666589</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>3154.392044868112</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>2984.634041118849</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>2807.926987080606</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>4953.800644836978</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>4707.921198415434</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>4429.488197668539</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>4429.488197668539</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>4157.461793254831</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X34" t="n">
-        <v>3912.070038588243</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>3684.650367902352</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>693.7847748441449</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>1648.327823655249</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,49 +7177,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7259,19 @@
         <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>1648.327823655249</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M39" t="n">
-        <v>1648.327823655249</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N39" t="n">
-        <v>1648.327823655249</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O39" t="n">
-        <v>1648.327823655249</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T40" t="n">
-        <v>2594.704009018975</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U40" t="n">
-        <v>2316.271008272081</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1792.237621104267</v>
+        <v>2104.36300005549</v>
       </c>
       <c r="C41" t="n">
-        <v>1354.09514828769</v>
+        <v>1666.220527238913</v>
       </c>
       <c r="D41" t="n">
-        <v>918.1853634621348</v>
+        <v>1230.310742413358</v>
       </c>
       <c r="E41" t="n">
-        <v>484.4106186204299</v>
+        <v>796.5359975716528</v>
       </c>
       <c r="F41" t="n">
-        <v>56.54318902963762</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>56.54318902963762</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>172.9644466585989</v>
       </c>
       <c r="K41" t="n">
-        <v>1185.945282862319</v>
+        <v>1007.314738616777</v>
       </c>
       <c r="L41" t="n">
-        <v>1396.102936374607</v>
+        <v>1007.314738616777</v>
       </c>
       <c r="M41" t="n">
-        <v>1396.102936374607</v>
+        <v>2164.362573827328</v>
       </c>
       <c r="N41" t="n">
-        <v>1396.102936374607</v>
+        <v>2164.362573827328</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397634</v>
       </c>
       <c r="P41" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.85211523103</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189625</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942681</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.668109022718</v>
+        <v>4604.853092126518</v>
       </c>
       <c r="T41" t="n">
-        <v>2626.823315289521</v>
+        <v>4384.785864999557</v>
       </c>
       <c r="U41" t="n">
-        <v>2626.823315289521</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V41" t="n">
-        <v>2626.823315289521</v>
+        <v>3762.9466122504</v>
       </c>
       <c r="W41" t="n">
-        <v>2626.823315289521</v>
+        <v>3358.091157661433</v>
       </c>
       <c r="X41" t="n">
-        <v>2626.823315289521</v>
+        <v>2938.948694240744</v>
       </c>
       <c r="Y41" t="n">
-        <v>2218.537191589175</v>
+        <v>2530.662570540398</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="J42" t="n">
-        <v>406.7483977834476</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="K42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>799.548563720919</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C43" t="n">
-        <v>626.9868522041439</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D43" t="n">
-        <v>626.9868522041439</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E43" t="n">
-        <v>626.9868522041439</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F43" t="n">
-        <v>450.2797981659001</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2513.544640857574</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.665194436029</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>1989.232193689134</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="V43" t="n">
-        <v>1702.276685559565</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.250281145856</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X43" t="n">
-        <v>1184.858526479269</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y43" t="n">
-        <v>957.4388557933771</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1475.906174557633</v>
+        <v>2104.36300005549</v>
       </c>
       <c r="C44" t="n">
-        <v>1037.763701741057</v>
+        <v>1666.220527238913</v>
       </c>
       <c r="D44" t="n">
-        <v>891.2989758752185</v>
+        <v>1230.310742413358</v>
       </c>
       <c r="E44" t="n">
-        <v>457.5242310335137</v>
+        <v>796.5359975716528</v>
       </c>
       <c r="F44" t="n">
-        <v>457.5242310335137</v>
+        <v>368.6685679808606</v>
       </c>
       <c r="G44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717715</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5387406219836</v>
+        <v>1363.375078729949</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5387406219836</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>1396.102936374607</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>1396.102936374607</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397634</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.85211523103</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189625</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942681</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022718</v>
+        <v>4604.853092126518</v>
       </c>
       <c r="T44" t="n">
-        <v>2502.600881895757</v>
+        <v>4384.785864999557</v>
       </c>
       <c r="U44" t="n">
-        <v>2243.378579212774</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V44" t="n">
-        <v>1880.7616291466</v>
+        <v>3762.9466122504</v>
       </c>
       <c r="W44" t="n">
-        <v>1475.906174557633</v>
+        <v>3358.091157661433</v>
       </c>
       <c r="X44" t="n">
-        <v>1475.906174557633</v>
+        <v>2938.948694240744</v>
       </c>
       <c r="Y44" t="n">
-        <v>1475.906174557633</v>
+        <v>2530.662570540398</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="I45" t="n">
-        <v>56.12639965677763</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="J45" t="n">
-        <v>380.68472462299</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="K45" t="n">
-        <v>380.68472462299</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>380.68472462299</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>380.68472462299</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>380.68472462299</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>380.68472462299</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1135.184560268659</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C46" t="n">
-        <v>962.6228487518839</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>796.7448559534066</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E46" t="n">
-        <v>626.9868522041439</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F46" t="n">
-        <v>450.2797981659001</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2596.153455922274</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2350.274009500729</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="U46" t="n">
-        <v>2071.841008753834</v>
+        <v>2251.337518478127</v>
       </c>
       <c r="V46" t="n">
-        <v>2071.841008753834</v>
+        <v>1964.382010348558</v>
       </c>
       <c r="W46" t="n">
-        <v>1799.814604340125</v>
+        <v>1692.355605934849</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.422849673538</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.003178987646</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L2" t="n">
-        <v>469.6822035600077</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8055,13 +8057,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>439.9970658025225</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q3" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8149,7 +8151,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8216,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8301,19 +8303,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M8" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>640.5448952297625</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,10 +8531,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>318.6828073078732</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>212.2804580932203</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>259.3095102562256</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>432.2592192869799</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>363.2306375284828</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,25 +8929,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>121.2143535006461</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>406.6119088543364</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>78.09558481559611</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9410,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9477,13 +9479,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
-        <v>655.9981329904112</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9960,10 +9962,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>433.7499898166684</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10127,7 +10129,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,16 +10664,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>269.6622319264171</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1133.8392149967</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,22 +10825,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>507.105909296743</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10905,22 +10907,22 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>519.9105708963857</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>79.99429024216698</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>212.2804580932202</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11297,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>212.2804580932203</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>713.2395913281061</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>411.885843577929</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>134.0173647732295</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>81.78272691405263</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>322.9843146001383</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>111.2039336442359</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627257</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>44.28436272291245</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>69.71657238081411</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>81.78272691405297</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>44.07191583437714</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>47.91312667565458</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>81.78272691405172</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>248.5691704774752</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>411.4732220987978</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>122.9802090598266</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.58904338006371</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>286.55060837012</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>125.2343690875819</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26071,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>143.6516710866788</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>401729.4067984425</v>
+        <v>569185.3568518781</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>401729.4067984425</v>
+        <v>569185.3568518781</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>606955.95606306</v>
+        <v>606955.9560630602</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>401729.4067984424</v>
+        <v>569185.3568518782</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>401729.4067984425</v>
+        <v>569185.3568518781</v>
       </c>
     </row>
   </sheetData>
@@ -26314,28 +26316,28 @@
         <v>375303.123923286</v>
       </c>
       <c r="C2" t="n">
-        <v>375303.123923286</v>
+        <v>375303.1239232859</v>
       </c>
       <c r="D2" t="n">
-        <v>375303.123923286</v>
+        <v>375303.1239232859</v>
       </c>
       <c r="E2" t="n">
-        <v>244099.9677817452</v>
+        <v>345850.0296919845</v>
       </c>
       <c r="F2" t="n">
-        <v>244099.9677817452</v>
+        <v>345850.0296919844</v>
       </c>
       <c r="G2" t="n">
-        <v>368800.3088961466</v>
+        <v>368800.3088961468</v>
       </c>
       <c r="H2" t="n">
         <v>368800.3088961467</v>
       </c>
       <c r="I2" t="n">
+        <v>368800.3088961466</v>
+      </c>
+      <c r="J2" t="n">
         <v>368800.3088961467</v>
-      </c>
-      <c r="J2" t="n">
-        <v>368800.3088961466</v>
       </c>
       <c r="K2" t="n">
         <v>368800.3088961466</v>
@@ -26344,16 +26346,16 @@
         <v>368800.3088961466</v>
       </c>
       <c r="M2" t="n">
-        <v>368800.3088961465</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="N2" t="n">
         <v>368800.3088961467</v>
       </c>
       <c r="O2" t="n">
-        <v>244099.9677817453</v>
+        <v>345850.0296919844</v>
       </c>
       <c r="P2" t="n">
-        <v>244099.9677817453</v>
+        <v>345850.0296919845</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045619</v>
+        <v>150665.7535717477</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260798</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340786</v>
+        <v>125751.0883356906</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>148010.1942457891</v>
       </c>
       <c r="D4" t="n">
-        <v>148010.1942457891</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>36113.14695271204</v>
+        <v>51166.46699861008</v>
       </c>
       <c r="F4" t="n">
-        <v>36113.14695271203</v>
+        <v>51166.46699861009</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="H4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="O4" t="n">
-        <v>36113.14695271204</v>
+        <v>51166.46699861009</v>
       </c>
       <c r="P4" t="n">
-        <v>36113.14695271204</v>
+        <v>51166.46699861008</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232875</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232875</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232875</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232875</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70619.29346830565</v>
+        <v>-70619.29346830567</v>
       </c>
       <c r="C6" t="n">
-        <v>153080.4051157392</v>
+        <v>153080.405115739</v>
       </c>
       <c r="D6" t="n">
-        <v>153080.4051157392</v>
+        <v>153080.405115739</v>
       </c>
       <c r="E6" t="n">
-        <v>155159.760489426</v>
+        <v>72752.53363929791</v>
       </c>
       <c r="F6" t="n">
-        <v>165330.7570898822</v>
+        <v>223418.2872110455</v>
       </c>
       <c r="G6" t="n">
-        <v>78460.76823462208</v>
+        <v>207430.4360081236</v>
       </c>
       <c r="H6" t="n">
         <v>236520.2451807314</v>
       </c>
       <c r="I6" t="n">
-        <v>236520.2451807314</v>
+        <v>236520.2451807313</v>
       </c>
       <c r="J6" t="n">
         <v>61868.89646302519</v>
@@ -26552,16 +26554,16 @@
         <v>236520.2451807313</v>
       </c>
       <c r="M6" t="n">
-        <v>228031.1634773905</v>
+        <v>110769.1568450407</v>
       </c>
       <c r="N6" t="n">
         <v>236520.2451807314</v>
       </c>
       <c r="O6" t="n">
-        <v>165330.7570898822</v>
+        <v>223418.2872110456</v>
       </c>
       <c r="P6" t="n">
-        <v>165330.7570898822</v>
+        <v>223418.2872110457</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.12624148567</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778133</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>106.134261899075</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778133</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778133</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>106.134261899075</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.2261030860415</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>72.11458473508497</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27435,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>81.78272691405269</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.5576416575629</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>256.0811030342884</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>44.28436272291291</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.0118993322381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>369.8422500230728</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27913,7 +27915,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>369.8422500230727</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28023,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4.277894049992028</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L2" t="n">
-        <v>469.6822035600077</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>439.9970658025225</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q3" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34936,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M8" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>640.5448952297625</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>318.6828073078732</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>212.2804580932203</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>259.3095102562256</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>432.2592192869799</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>363.2306375284828</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35647,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>121.2143535006461</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>406.6119088543364</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>78.09558481559611</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L21" t="n">
-        <v>655.9981329904112</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36616,7 +36618,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-6.301682105484278e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>433.7499898166684</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36847,7 +36849,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>269.6622319264171</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1133.8392149967</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,22 +37545,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>507.105909296743</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37625,22 +37627,22 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>519.9105708963857</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>79.99429024216698</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>212.2804580932202</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37941,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>212.2804580932203</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>713.2395913281061</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38178,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1263088.105304657</v>
+        <v>1262482.01767576</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074005</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797173</v>
+        <v>606553.2040797151</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6880541.457576085</v>
+        <v>6880541.457576087</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>168.5716186828009</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>359.4361022422149</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -822,13 +822,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>130.9394714210104</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -876,13 +876,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>161.155110205869</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -898,22 +898,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>167.5076522605959</v>
+        <v>337.4437351164528</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>159.0870598415706</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>43.4889870101585</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1141,13 +1141,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>59.59474737021491</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>32.77389691395845</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>137.2470510215434</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1347,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1356,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>131.5141848153387</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.1507312021297</v>
+        <v>10.15073120213241</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>161.6379250432767</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>145.4261460119205</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>289.6029663988411</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1785,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1824,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>239.8015903253614</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>89.78186289252659</v>
       </c>
     </row>
     <row r="17">
@@ -2010,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2061,7 +2061,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>152.8474034491069</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="21">
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2298,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>240.0854409714231</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2535,13 +2535,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>161.1551102058687</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2772,10 +2772,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>187.5234134555184</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2955,22 +2955,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>195.5075252816747</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3249,10 +3249,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>125.1716544454844</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3432,7 +3432,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>47.61404849749822</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3508,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308167788</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>27.0795002619505</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>310.8326411358256</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3751,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>12.11553319608651</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>172.6623007436913</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>10.15073120213241</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3991,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>272.1494839753869</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>99.28616603324285</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1197.718769568169</v>
+        <v>2479.623634536778</v>
       </c>
       <c r="C2" t="n">
-        <v>1163.616700791997</v>
+        <v>2041.481161720201</v>
       </c>
       <c r="D2" t="n">
-        <v>800.5499308503654</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E2" t="n">
-        <v>366.7751860086605</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362199</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4363,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748445</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.221573682272</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>1643.366119093305</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X2" t="n">
-        <v>1224.223655672616</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y2" t="n">
-        <v>1219.977936012673</v>
+        <v>2649.897996842637</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1032.884738113077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1032.884738113077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1468.481833257574</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1468.481833257574</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.481833257574</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1468.481833257574</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2129.321887799353</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2670.060826431428</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>749.5747111314687</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>749.5747111314687</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>579.816707382206</v>
       </c>
       <c r="F4" t="n">
         <v>447.554615037751</v>
@@ -4485,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4515,25 +4515,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2510.819457729425</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T4" t="n">
-        <v>2264.94001130788</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U4" t="n">
-        <v>1986.507010560985</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V4" t="n">
-        <v>1986.507010560985</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W4" t="n">
-        <v>1714.480606147277</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1415.517618276922</v>
+        <v>489.9592645846401</v>
       </c>
       <c r="C5" t="n">
-        <v>977.3751454603453</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D5" t="n">
-        <v>541.4653606347897</v>
+        <v>423.987815023316</v>
       </c>
       <c r="E5" t="n">
-        <v>511.7310198334889</v>
+        <v>394.2534742220153</v>
       </c>
       <c r="F5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
@@ -4576,43 +4576,43 @@
         <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X5" t="n">
-        <v>2250.103312462176</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y5" t="n">
-        <v>1841.81718876183</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.1364226482438</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C7" t="n">
-        <v>749.5747111314687</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D7" t="n">
-        <v>583.6967183329914</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>413.9387145837287</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>237.2316605454849</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>237.2316605454849</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>97.32948623585938</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4752,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2424.181380009883</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>2145.748379262988</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1858.792871133419</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W7" t="n">
-        <v>1586.76646671971</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1341.374712053123</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y7" t="n">
-        <v>1113.955041367231</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>137.4249565943854</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901678</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862857</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
@@ -4822,34 +4822,34 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>2636.140829505129</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>2621.038770124844</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>2616.793050464902</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>740.3049442308646</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>740.3049442308646</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E10" t="n">
         <v>624.2616690759949</v>
@@ -4959,7 +4959,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434796</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013251</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>2243.522190013251</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1956.566681883682</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1684.540277469973</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5035,58 +5035,58 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171362</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>93.77009931885362</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>93.77009931885362</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1168.830065571713</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M11" t="n">
-        <v>2325.877900782264</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N11" t="n">
-        <v>3451.608884218711</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O11" t="n">
-        <v>4431.788550789018</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P11" t="n">
-        <v>4688.504965942681</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q11" t="n">
-        <v>4688.504965942681</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942681</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126518</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.785864999557</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316574</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.9466122504</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.091157661433</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>2938.948694240744</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.662570540398</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5111,49 +5111,49 @@
         <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>119.8337724793112</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8337724793112</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>119.8337724793112</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>119.8337724793112</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>479.4321036325092</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1639.837082703323</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1172.828259930735</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.26654841396</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D13" t="n">
-        <v>834.3885556154826</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E13" t="n">
-        <v>664.6305518662199</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F13" t="n">
-        <v>487.9234978279761</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5229,22 +5229,22 @@
         <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2387.917709162805</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>2109.48470841591</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>2109.48470841591</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1837.458304002201</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1592.066549335614</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>1364.646878649722</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5272,49 +5272,49 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171362</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>93.77009931885362</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>928.1203912770317</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>2003.180357529891</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="M14" t="n">
-        <v>3160.228192740442</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N14" t="n">
-        <v>4285.959176176888</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O14" t="n">
-        <v>4285.959176176888</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P14" t="n">
-        <v>4688.504965942681</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q14" t="n">
-        <v>4688.504965942681</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942681</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4688.504965942681</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>4688.504965942681</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="U14" t="n">
-        <v>4429.282663259698</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V14" t="n">
-        <v>4066.665713193524</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W14" t="n">
         <v>3774.137464305806</v>
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5348,16 +5348,16 @@
         <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>119.8337724793112</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
         <v>1099.098144071247</v>
@@ -5381,16 +5381,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1007.236984956563</v>
+        <v>918.5770357312381</v>
       </c>
       <c r="C16" t="n">
-        <v>834.6752734397877</v>
+        <v>746.015324214463</v>
       </c>
       <c r="D16" t="n">
-        <v>668.7972806413104</v>
+        <v>580.1373314159857</v>
       </c>
       <c r="E16" t="n">
-        <v>499.0392768920476</v>
+        <v>410.3793276667229</v>
       </c>
       <c r="F16" t="n">
-        <v>322.3322228538038</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="G16" t="n">
-        <v>322.3322228538038</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H16" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2710.429709221653</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2464.550262800109</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2186.117262053214</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1943.893433441738</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1671.867029028029</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1426.475274361442</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y16" t="n">
-        <v>1199.05560367555</v>
+        <v>1110.395654450225</v>
       </c>
     </row>
     <row r="17">
@@ -5515,22 +5515,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968675</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P17" t="n">
         <v>5113.042013538981</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3346.878440713113</v>
+        <v>922.9010479080736</v>
       </c>
       <c r="C19" t="n">
-        <v>3174.316729196338</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D19" t="n">
-        <v>3008.438736397861</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E19" t="n">
-        <v>2838.680732648598</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>2661.973678610354</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>2496.382403636182</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>5094.802844496297</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>4848.923398074752</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>4570.490397327858</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>4283.534889198289</v>
+        <v>1859.557496393248</v>
       </c>
       <c r="W19" t="n">
-        <v>4011.50848478458</v>
+        <v>1587.53109197954</v>
       </c>
       <c r="X19" t="n">
-        <v>3766.116730117992</v>
+        <v>1342.139337312952</v>
       </c>
       <c r="Y19" t="n">
-        <v>3538.697059432101</v>
+        <v>1114.719666627061</v>
       </c>
     </row>
     <row r="20">
@@ -5752,16 +5752,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5779,22 +5779,22 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136696</v>
@@ -5828,13 +5828,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
         <v>1107.588885023173</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1952.097456569358</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3346.878440713113</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>3174.316729196338</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>3008.438736397861</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>2838.680732648598</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>2661.973678610354</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5094.802844496297</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>4848.923398074752</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>4570.490397327858</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>4283.534889198289</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W25" t="n">
-        <v>4011.50848478458</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X25" t="n">
-        <v>3766.116730117992</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>3538.697059432101</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>3879.214741978675</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2035.366634303136</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>838.7339540459399</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>666.1722425291648</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2340.778911407579</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2062.345910660684</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1775.390402531115</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1503.363998117406</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1257.972243450819</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1030.552572764927</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1726.993304878938</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>922.9010479080736</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2670.825451691258</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2424.946005269713</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2146.513004522818</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1859.557496393248</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1587.53109197954</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1342.139337312952</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1114.719666627061</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,49 +7177,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176952</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755407</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2265.02878318778</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1978.07327505821</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2104.36300005549</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>1666.220527238913</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1230.310742413358</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>796.5359975716528</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885362</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>172.9644466585989</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>1007.314738616777</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1007.314738616777</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>2164.362573827328</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2164.362573827328</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397634</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.85211523103</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189625</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942681</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126518</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.785864999557</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316574</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.9466122504</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661433</v>
+        <v>3661.810258604561</v>
       </c>
       <c r="X41" t="n">
-        <v>2938.948694240744</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y41" t="n">
-        <v>2530.662570540398</v>
+        <v>2834.381671483525</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7481,16 +7481,16 @@
         <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>119.8337724793112</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
         <v>1099.098144071247</v>
@@ -7514,16 +7514,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7551,22 +7551,22 @@
         <v>1000.26654841396</v>
       </c>
       <c r="D43" t="n">
-        <v>834.3885556154826</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E43" t="n">
-        <v>664.6305518662199</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F43" t="n">
-        <v>487.9234978279761</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G43" t="n">
         <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>182.4300485441783</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7593,22 +7593,22 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225022</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2674.873217292374</v>
       </c>
       <c r="U43" t="n">
-        <v>2283.891072803477</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V43" t="n">
         <v>2109.48470841591</v>
       </c>
       <c r="W43" t="n">
-        <v>1837.458304002201</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X43" t="n">
         <v>1592.066549335614</v>
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.36300005549</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>1666.220527238913</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>1230.310742413358</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>796.5359975716528</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>368.6685679808606</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>93.77009931885362</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885362</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>529.0247867717715</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>1363.375078729949</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
         <v>2438.435044982809</v>
@@ -7663,37 +7663,37 @@
         <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397634</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.85211523103</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189625</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942681</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126518</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.785864999557</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316574</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.9466122504</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661433</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240744</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.662570540398</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7718,16 +7718,16 @@
         <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>119.8337724793112</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
         <v>1099.098144071247</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1172.828259930735</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C46" t="n">
-        <v>1000.26654841396</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D46" t="n">
-        <v>834.3885556154826</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>664.6305518662199</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
-        <v>487.9234978279761</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2529.770519225022</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>2251.337518478127</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>1964.382010348558</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1692.355605934849</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1592.066549335614</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1364.646878649722</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8057,13 +8057,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>439.9970658025225</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8224,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8458,7 +8458,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8531,16 +8531,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>318.6828073078732</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>259.3095102562256</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,19 +8777,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>363.2306375284828</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1172.12624148567</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>406.6119088543364</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9163,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>866.2895820207518</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,22 +10825,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>507.105909296743</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>79.99429024216698</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>713.2395913281061</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>411.885843577929</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>81.78272691405263</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>72.44040884377128</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>111.2039336442359</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>44.28436272291245</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>135.3636110865062</v>
       </c>
     </row>
     <row r="17">
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>131.238549599167</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>44.0005120768507</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>81.78272691405292</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>81.78272691405297</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>47.91312667565458</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>117.7661826744373</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>110.0349065174851</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>248.5691704774752</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>111.2039336442331</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>411.4732220987978</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>125.2343690875819</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>143.6516710866788</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>569185.3568518781</v>
+        <v>569185.3568518783</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>569185.3568518781</v>
+        <v>569185.3568518785</v>
       </c>
     </row>
     <row r="7">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>606955.9560630602</v>
+        <v>606955.95606306</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>569185.3568518782</v>
+        <v>569185.3568518783</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>569185.3568518781</v>
+        <v>569185.3568518783</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>375303.123923286</v>
       </c>
       <c r="C2" t="n">
-        <v>375303.1239232859</v>
+        <v>375303.123923286</v>
       </c>
       <c r="D2" t="n">
-        <v>375303.1239232859</v>
+        <v>375303.123923286</v>
       </c>
       <c r="E2" t="n">
+        <v>345850.0296919846</v>
+      </c>
+      <c r="F2" t="n">
         <v>345850.0296919845</v>
       </c>
-      <c r="F2" t="n">
-        <v>345850.0296919844</v>
-      </c>
       <c r="G2" t="n">
-        <v>368800.3088961468</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="H2" t="n">
         <v>368800.3088961467</v>
@@ -26337,22 +26337,22 @@
         <v>368800.3088961466</v>
       </c>
       <c r="J2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="K2" t="n">
         <v>368800.3088961466</v>
       </c>
       <c r="L2" t="n">
+        <v>368800.3088961465</v>
+      </c>
+      <c r="M2" t="n">
+        <v>368800.3088961467</v>
+      </c>
+      <c r="N2" t="n">
         <v>368800.3088961466</v>
       </c>
-      <c r="M2" t="n">
-        <v>368800.3088961466</v>
-      </c>
-      <c r="N2" t="n">
-        <v>368800.3088961467</v>
-      </c>
       <c r="O2" t="n">
-        <v>345850.0296919844</v>
+        <v>345850.0296919846</v>
       </c>
       <c r="P2" t="n">
         <v>345850.0296919845</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717477</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260798</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356906</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>148010.1942457892</v>
+      </c>
+      <c r="C4" t="n">
+        <v>148010.1942457892</v>
+      </c>
+      <c r="D4" t="n">
         <v>148010.1942457891</v>
       </c>
-      <c r="C4" t="n">
-        <v>148010.1942457891</v>
-      </c>
-      <c r="D4" t="n">
-        <v>148010.1942457892</v>
-      </c>
       <c r="E4" t="n">
-        <v>51166.46699861008</v>
+        <v>51166.4669986101</v>
       </c>
       <c r="F4" t="n">
-        <v>51166.46699861009</v>
+        <v>51166.46699861011</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
+        <v>54561.82510962277</v>
+      </c>
+      <c r="I4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="I4" t="n">
-        <v>54561.82510962275</v>
-      </c>
       <c r="J4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
         <v>51166.46699861009</v>
       </c>
       <c r="P4" t="n">
-        <v>51166.46699861008</v>
+        <v>51166.4669986101</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232875</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232875</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232875</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232875</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70619.29346830567</v>
+        <v>-70619.29346830574</v>
       </c>
       <c r="C6" t="n">
-        <v>153080.405115739</v>
+        <v>153080.4051157392</v>
       </c>
       <c r="D6" t="n">
-        <v>153080.405115739</v>
+        <v>153080.4051157392</v>
       </c>
       <c r="E6" t="n">
-        <v>72752.53363929791</v>
+        <v>72647.34401704307</v>
       </c>
       <c r="F6" t="n">
-        <v>223418.2872110455</v>
+        <v>223313.0975887909</v>
       </c>
       <c r="G6" t="n">
-        <v>207430.4360081236</v>
+        <v>207407.211668741</v>
       </c>
       <c r="H6" t="n">
-        <v>236520.2451807314</v>
+        <v>236497.0208413487</v>
       </c>
       <c r="I6" t="n">
-        <v>236520.2451807313</v>
+        <v>236497.0208413487</v>
       </c>
       <c r="J6" t="n">
-        <v>61868.89646302519</v>
+        <v>61845.67212364254</v>
       </c>
       <c r="K6" t="n">
-        <v>236520.2451807313</v>
+        <v>236497.0208413487</v>
       </c>
       <c r="L6" t="n">
-        <v>236520.2451807313</v>
+        <v>236497.0208413487</v>
       </c>
       <c r="M6" t="n">
-        <v>110769.1568450407</v>
+        <v>110745.932505658</v>
       </c>
       <c r="N6" t="n">
-        <v>236520.2451807314</v>
+        <v>236497.0208413487</v>
       </c>
       <c r="O6" t="n">
-        <v>223418.2872110456</v>
+        <v>223313.097588791</v>
       </c>
       <c r="P6" t="n">
-        <v>223418.2872110457</v>
+        <v>223313.097588791</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778133</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.134261899075</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778133</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778133</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.134261899075</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>253.4649560972578</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>72.11458473508497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>44.00051207685092</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>81.78272691405269</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>256.0811030342884</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>30.81337269022669</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.28436272291291</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>369.8422500230728</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>50.04145816404291</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27915,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>33.58904338006388</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>439.9970658025225</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34944,16 +34944,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35108,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35178,7 +35178,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35190,7 +35190,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,19 +35248,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>318.6828073078732</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>259.3095102562256</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>363.2306375284828</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1172.12624148567</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35573,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>406.6119088543364</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35810,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>866.2895820207518</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36056,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>507.105909296743</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37624,7 +37624,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>79.99429024216698</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37943,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38019,7 +38019,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38031,7 +38031,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>713.2395913281061</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38180,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
